--- a/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.8619818566111825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.463371940875597</v>
+        <v>-7.46337194087559</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.363799434182789</v>
@@ -655,7 +655,7 @@
         <v>1.233311727395392</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-11.93588675678101</v>
+        <v>-11.93588675678102</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.535891469756437</v>
@@ -664,7 +664,7 @@
         <v>1.359205413034975</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.09455213420099</v>
+        <v>-9.094552134200995</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.234197828408274</v>
+        <v>-1.017319795822116</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.981756313795715</v>
+        <v>-6.233841382959407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.85286638725535</v>
+        <v>-13.7170651456124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.608687964226315</v>
+        <v>-5.672628783643692</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.792090689110345</v>
+        <v>-6.659221935462146</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.66481692705227</v>
+        <v>-18.86636497671529</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7700889146836313</v>
+        <v>-0.9907869033572732</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.819978377149191</v>
+        <v>-4.015154489940597</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.3481539601856</v>
+        <v>-14.37058769335625</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.18326869741335</v>
+        <v>13.50775282598258</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.326045662688319</v>
+        <v>7.972452449991413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.6278761724918642</v>
+        <v>-1.382969713222642</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.0148148311283</v>
+        <v>10.48662440659319</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.77076239011701</v>
+        <v>9.197748446709996</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.829116618547444</v>
+        <v>-4.978335816342737</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.24041436271482</v>
+        <v>9.745100585075429</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.70075060507951</v>
+        <v>6.60782212730215</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.654013408765671</v>
+        <v>-4.458810217270907</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.01910944874514017</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1654569901630912</v>
+        <v>-0.1654569901630911</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04615184306108836</v>
@@ -760,7 +760,7 @@
         <v>0.02407971186769918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2330414181625878</v>
+        <v>-0.2330414181625881</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.095475069624415</v>
@@ -769,7 +769,7 @@
         <v>0.02860964207557732</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.191429403460206</v>
+        <v>-0.1914294034602061</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02531182685029817</v>
+        <v>-0.02078580348166623</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1220948493340576</v>
+        <v>-0.126425939442513</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2868999811839818</v>
+        <v>-0.2884042275488293</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1180009736261403</v>
+        <v>-0.101582664946232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1227246457484399</v>
+        <v>-0.123318156431362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3306333344458534</v>
+        <v>-0.3411489336127576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01619045742229653</v>
+        <v>-0.02007015020130715</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07725529083426411</v>
+        <v>-0.07819802288539229</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2843280407827698</v>
+        <v>-0.2831577917819129</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2880782820030258</v>
+        <v>0.3206126187805394</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.175244174622277</v>
+        <v>0.189187589101189</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01378257400312444</v>
+        <v>-0.03473602013414666</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2116437763597094</v>
+        <v>0.2207530514988152</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1904686265924874</v>
+        <v>0.1903530491745355</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1201918445627419</v>
+        <v>-0.1072086487227652</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2279296001891942</v>
+        <v>0.2167157992487912</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1477785216897086</v>
+        <v>0.1447438143605394</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1073906854706872</v>
+        <v>-0.1005371860840207</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.258951455007076</v>
+        <v>-1.440755355543765</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.371465222649306</v>
+        <v>-5.55122368162862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.19000395016334</v>
+        <v>-20.57532832250389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.02172541437716121</v>
+        <v>-0.3390841879402979</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.74881005663796</v>
+        <v>-11.58906813950479</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.01920263464525</v>
+        <v>-25.5338643276462</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5083382819458141</v>
+        <v>1.146383714339233</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.208956787966438</v>
+        <v>-6.438427528647106</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-21.10373427986617</v>
+        <v>-20.80081262447309</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.32274527461671</v>
+        <v>13.31206126523158</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.860233652180833</v>
+        <v>8.747124340510872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.294846619458847</v>
+        <v>-6.243035569707252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.43163181651675</v>
+        <v>14.31900188314713</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.346854922391582</v>
+        <v>2.799967476125325</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-13.27965016922118</v>
+        <v>-12.25459966230022</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.39630365670929</v>
+        <v>11.63921908432767</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.403309674976316</v>
+        <v>4.620510590014224</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-11.60882846365294</v>
+        <v>-11.61973197543382</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.04051809174611126</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2765347729486693</v>
+        <v>-0.2765347729486695</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1278419308778631</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02599879973648471</v>
+        <v>-0.02848847568727817</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1062723421616117</v>
+        <v>-0.1152699709928928</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3938718347199208</v>
+        <v>-0.4033612749257506</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0008937106065078955</v>
+        <v>-0.006311617653477271</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2032875739188436</v>
+        <v>-0.1940353112093899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4363681245082762</v>
+        <v>-0.4407354274578915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01009123748222105</v>
+        <v>0.02106196770784701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1141541139124666</v>
+        <v>-0.1204639296662774</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3883733977610565</v>
+        <v>-0.3853112659470687</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.305907869271369</v>
+        <v>0.306652999193268</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2280885040800869</v>
+        <v>0.1955123959248315</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1377430556248748</v>
+        <v>-0.1556541249616213</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2764765470135005</v>
+        <v>0.2724942270422112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06141929263463441</v>
+        <v>0.05423011187618079</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2493070670699622</v>
+        <v>-0.24202753374824</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.237745531808978</v>
+        <v>0.240138005768849</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09114972919354215</v>
+        <v>0.09363954808775478</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2398818197914661</v>
+        <v>-0.2351315874709912</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>9.987595762569068</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.184131554786623</v>
+        <v>-9.184131554786635</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.811335953333311</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.080721468322203</v>
+        <v>4.402719868144842</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.333682134146475</v>
+        <v>3.716280096392561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.40743599449718</v>
+        <v>-15.21648842949815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9538029774071403</v>
+        <v>-0.9775169973788495</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.222862694730956</v>
+        <v>-5.463190403651601</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-21.22718636277654</v>
+        <v>-21.3265644581299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.740461609521436</v>
+        <v>5.557945456668393</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.324874005560495</v>
+        <v>3.517007523368886</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.23848258650691</v>
+        <v>-14.36999916267997</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.99180719267735</v>
+        <v>16.24683409494582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.91827666926713</v>
+        <v>16.34918362111206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.984082179266319</v>
+        <v>-2.502852219288739</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.98615994197358</v>
+        <v>17.38114036318824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.82379206409224</v>
+        <v>15.51812587267406</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.06160454078468</v>
+        <v>-1.250516827596779</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.71223871371706</v>
+        <v>16.01964530320849</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.25410008623173</v>
+        <v>13.96517264773598</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-4.127022062655778</v>
+        <v>-3.723315982001861</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2051861167003758</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1886796716437512</v>
+        <v>-0.1886796716437514</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1418919708815918</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07748961386408783</v>
+        <v>0.08535416881487819</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06543422822238217</v>
+        <v>0.06684786479742263</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2960119553237447</v>
+        <v>-0.2969588459571071</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.009266150136231836</v>
+        <v>-0.01421961083997718</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09245581075822783</v>
+        <v>-0.08538316509699961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3125192768809918</v>
+        <v>-0.3154045489707511</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1048799712487084</v>
+        <v>0.1014219961556872</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06310922426120617</v>
+        <v>0.06812217095389311</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2628403360960916</v>
+        <v>-0.2636866681580341</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3491666173239035</v>
+        <v>0.354104863776671</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3557962714348873</v>
+        <v>0.3544567393666196</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06249391630811837</v>
+        <v>-0.05988942319488406</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3426550197868099</v>
+        <v>0.3075316301897854</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2661421507212179</v>
+        <v>0.2717079278043983</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.03529196056934967</v>
+        <v>-0.03473487326499732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3253036455277861</v>
+        <v>0.3311924332262595</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2851341463207838</v>
+        <v>0.2897992054076056</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08588122825563826</v>
+        <v>-0.07398639059322371</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.94046599625215</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.11857808969325</v>
+        <v>-10.11857808969324</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.975085485759021</v>
@@ -1306,7 +1306,7 @@
         <v>-0.7793970763423252</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-13.67095027163866</v>
+        <v>-13.67095027163865</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.648476255344098</v>
+        <v>1.464405365425811</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.098869419532893</v>
+        <v>-2.465117415665679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.20627318294364</v>
+        <v>-14.19187124432318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.55591731089143</v>
+        <v>-2.50962994153241</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.36261642130818</v>
+        <v>-10.88422827719619</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-24.04790396533049</v>
+        <v>-24.40513325125196</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.061187175827919</v>
+        <v>1.837493856842923</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.033041031680674</v>
+        <v>-4.150881063381746</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-16.74947716430143</v>
+        <v>-16.98133442542633</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.854739316229812</v>
+        <v>9.574810528932662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.988004853902623</v>
+        <v>6.161311278793828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.521193567581325</v>
+        <v>-5.93762115726451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.973108005458848</v>
+        <v>7.531738732547202</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.187564494623474</v>
+        <v>-0.7141695945306271</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-14.68145542390113</v>
+        <v>-15.08058035030589</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.527535249055006</v>
+        <v>8.096731430108807</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.375882689871625</v>
+        <v>2.360190336917977</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.42724240898245</v>
+        <v>-10.58007076491503</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.03661572584216494</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.190933044928555</v>
+        <v>-0.1909330449285549</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04778638897478244</v>
@@ -1411,7 +1411,7 @@
         <v>-0.01382307731884843</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2424625500442501</v>
+        <v>-0.2424625500442499</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03035230409005643</v>
+        <v>0.02655299050745527</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03827529665823107</v>
+        <v>-0.04499277173697432</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2593601876149755</v>
+        <v>-0.2587537469093889</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03932890744326449</v>
+        <v>-0.03810967065433886</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1751499214090333</v>
+        <v>-0.1660795545160755</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3756017577766397</v>
+        <v>-0.374242676892389</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03620246342051982</v>
+        <v>0.03121960365377232</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0694758751407398</v>
+        <v>-0.0719590046582857</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2888512766417241</v>
+        <v>-0.2921643200421328</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1893662438264802</v>
+        <v>0.1874189036464783</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1176120471099839</v>
+        <v>0.1215706424147313</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1088049177940184</v>
+        <v>-0.1159041510058307</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1332545070613096</v>
+        <v>0.1265027596433033</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01980293711963136</v>
+        <v>-0.01029659971392537</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2467604968650045</v>
+        <v>-0.2516449925167892</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1536175690250944</v>
+        <v>0.1481248915773364</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04358663293989578</v>
+        <v>0.04237783588408159</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1903989511984915</v>
+        <v>-0.1936513043540375</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.722459907782572</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-8.917058664642674</v>
+        <v>-8.91705866464269</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.786643115202686</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3705785312159394</v>
+        <v>-0.9912398151500914</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.291705930333237</v>
+        <v>-2.687774160463677</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.7262566417865</v>
+        <v>-15.9518451383206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.794468012863565</v>
+        <v>4.148580200452921</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.119526101826772</v>
+        <v>2.771333343031245</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-17.10141538603274</v>
+        <v>-17.42336894613954</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.635113218933895</v>
+        <v>3.507040861635555</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.039730112067023</v>
+        <v>1.004842813636326</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-15.78401854508919</v>
+        <v>-15.4200750253476</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.47903852573018</v>
+        <v>13.08236715822619</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.58295253393986</v>
+        <v>11.11342821897354</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.934272358181804</v>
+        <v>-1.434678573702811</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.04902100030441</v>
+        <v>14.73924709519888</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.13019211455912</v>
+        <v>12.82380993983399</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-7.140558283174695</v>
+        <v>-6.790300420532777</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.24190357567118</v>
+        <v>12.545579790687</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.633264588383305</v>
+        <v>9.613971361721203</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.946961716523241</v>
+        <v>-6.897005346848357</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.07043069643815099</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1687149539522497</v>
+        <v>-0.16871495395225</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1500277723106909</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.006670783191622833</v>
+        <v>-0.01765337124291418</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05691799434261977</v>
+        <v>-0.04474747853665429</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2816335356958194</v>
+        <v>-0.2806597259222826</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07006203027393081</v>
+        <v>0.06154158138832912</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04483798622941955</v>
+        <v>0.04116454924828437</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2510610379452097</v>
+        <v>-0.2536709122063264</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05812602314217388</v>
+        <v>0.05506185024521771</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01667597775111059</v>
+        <v>0.01567040670972123</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2505643143166418</v>
+        <v>-0.2428748053125203</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2779491211744994</v>
+        <v>0.2644842457516187</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2223316555961568</v>
+        <v>0.2343769723000786</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04046162791189378</v>
+        <v>-0.03044655663392665</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2415171836142875</v>
+        <v>0.2376017700089141</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2102327394681888</v>
+        <v>0.2059727659519836</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1175063385396724</v>
+        <v>-0.1114296173179465</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2116196159080422</v>
+        <v>0.216515243436714</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1675034193008408</v>
+        <v>0.1672618916041863</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.117817116054774</v>
+        <v>-0.119963940758747</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.1163340847144978</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-18.17911278607142</v>
+        <v>-18.17911278607141</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.233008265919481</v>
@@ -1734,7 +1734,7 @@
         <v>0.7690924768324114</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-15.79095104846007</v>
+        <v>-15.79095104846006</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.626361397045014</v>
+        <v>3.230140391529527</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.1048421755000239</v>
+        <v>-0.6261868298794833</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.97129551607708</v>
+        <v>-10.90047333805964</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.5248707076075104</v>
+        <v>0.3116900304942163</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.799337538882313</v>
+        <v>-3.609077666274012</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.14575014798643</v>
+        <v>-22.21495312458246</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.865382070593518</v>
+        <v>1.971885476371964</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.597996532907762</v>
+        <v>-2.931915055143857</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.944832895641</v>
+        <v>-19.80845340514542</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.18393076076674</v>
+        <v>19.40828059885325</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.00891566789072</v>
+        <v>14.52729696230407</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.406889087308361</v>
+        <v>8.318777388207984</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.899464037925416</v>
+        <v>7.516007920318504</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.914395262974181</v>
+        <v>4.00861417814781</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-14.23646457549039</v>
+        <v>-14.24486448136871</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.654895773517504</v>
+        <v>8.9288689775507</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.360899725492867</v>
+        <v>4.607940352762168</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-11.80442535774456</v>
+        <v>-11.41294516408606</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.001662355927956936</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2597704359740189</v>
+        <v>-0.2597704359740187</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.08472635606973235</v>
@@ -1839,7 +1839,7 @@
         <v>0.01245218805921487</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2556674236356207</v>
+        <v>-0.2556674236356206</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1232445791451957</v>
+        <v>0.1007580479921219</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.003655129113969978</v>
+        <v>-0.0003273228342086108</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3768048576998214</v>
+        <v>-0.3738854989266951</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.007294024052061127</v>
+        <v>0.004684410439331321</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.05271551283804214</v>
+        <v>-0.05037623269186035</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3115098760532831</v>
+        <v>-0.3119587166325168</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02872661252086829</v>
+        <v>0.03162982601596915</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04123464378807625</v>
+        <v>-0.04666456884933332</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.314341270968109</v>
+        <v>-0.314155518217153</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8087661554602804</v>
+        <v>0.8097572413230933</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6339846315415758</v>
+        <v>0.612167336275906</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3419199459969985</v>
+        <v>0.3538808487274377</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1166583217702273</v>
+        <v>0.1117697830304835</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.05699590237430489</v>
+        <v>0.05824994072504847</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2065126537994694</v>
+        <v>-0.2061577145539826</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1441218564242623</v>
+        <v>0.1509660818434643</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.07234907824827694</v>
+        <v>0.07565208029599454</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1907233037610368</v>
+        <v>-0.1886019962954512</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.936053920718363</v>
+        <v>4.834726162649785</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.474270052048091</v>
+        <v>1.775382426763414</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.33347772290922</v>
+        <v>-11.34876121464517</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.903008774907176</v>
+        <v>3.116477121105796</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.601350099744868</v>
+        <v>-2.469190018758277</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-19.59712375373911</v>
+        <v>-19.68867204494254</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.662426829084029</v>
+        <v>4.585447586046485</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.1489873512323798</v>
+        <v>0.2563913078212966</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.84423296973424</v>
+        <v>-14.84259651411195</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.95515355230974</v>
+        <v>10.15784918640112</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.555061366813339</v>
+        <v>6.747293597154677</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-6.344455563484884</v>
+        <v>-6.213324400589967</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.573960417171135</v>
+        <v>7.737295794202062</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.158970164902687</v>
+        <v>2.015268589979699</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-15.31519575076081</v>
+        <v>-15.36690623023704</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.159828509009717</v>
+        <v>8.048803907797906</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.716175939323655</v>
+        <v>3.701978258316869</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-11.4246383756217</v>
+        <v>-11.53123666157646</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.0987245489817339</v>
+        <v>0.09916297168979137</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.03002676737383056</v>
+        <v>0.03513785536710112</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.231454883072229</v>
+        <v>-0.2304224108531999</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04463676386181064</v>
+        <v>0.04842998479348914</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03990289576480372</v>
+        <v>-0.03793843900816397</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.301587532681055</v>
+        <v>-0.3052398545175965</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08209002447460262</v>
+        <v>0.08022333041959732</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.002450889957149096</v>
+        <v>0.00444606092863747</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2607941366747282</v>
+        <v>-0.2605863507592101</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.212392783420917</v>
+        <v>0.2186543494320071</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1403670701247206</v>
+        <v>0.1434113988005413</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1359851254660054</v>
+        <v>-0.1319117549222697</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1206335452388271</v>
+        <v>0.1249423321540651</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0343049294234775</v>
+        <v>0.03250614000502442</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2439046766533966</v>
+        <v>-0.2445959985564578</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1479786389447003</v>
+        <v>0.1460288619032341</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06703629080719672</v>
+        <v>0.06707578232555346</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2058825974113878</v>
+        <v>-0.2069663264550327</v>
       </c>
     </row>
     <row r="46">
